--- a/xls/8_PERITI E LIQUIDATORI.xlsx
+++ b/xls/8_PERITI E LIQUIDATORI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CristalloVetriAuto\Desktop\UTILI\GESTIONALE\ANAGRAFICHE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucacastellani\Desktop\CRISTALLO_PROJECT\Cristallo-Project\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067F6E55-B902-4D89-8943-C266B1A2ED60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA3231-99AD-49C9-B85D-E68BD7C41BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="27180" windowHeight="15480" xr2:uid="{2781C9AA-7112-4AA4-9009-DC4D6F3B01DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2781C9AA-7112-4AA4-9009-DC4D6F3B01DE}"/>
   </bookViews>
   <sheets>
     <sheet name="PERITI E LIQUIDATORI" sheetId="7" r:id="rId1"/>
@@ -432,7 +432,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -441,10 +441,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,6 +449,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -773,15 +778,16 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
@@ -828,11 +834,11 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -854,11 +860,11 @@
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -876,11 +882,11 @@
       <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="9">
         <v>3408647522</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -898,11 +904,11 @@
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="9">
         <v>3285527082</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -920,11 +926,11 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="9">
         <v>3888333821</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -942,11 +948,11 @@
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -964,11 +970,11 @@
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="9">
         <v>3382001744</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -986,11 +992,11 @@
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1008,9 +1014,9 @@
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1028,9 +1034,9 @@
       <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1048,13 +1054,13 @@
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1072,11 +1078,11 @@
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1094,11 +1100,11 @@
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1116,9 +1122,9 @@
       <c r="B15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1136,9 +1142,9 @@
       <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1156,13 +1162,13 @@
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <v>3381102266</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1180,11 +1186,11 @@
       <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1202,11 +1208,11 @@
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1228,11 +1234,11 @@
       <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>69</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1250,9 +1256,9 @@
       <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1270,11 +1276,11 @@
       <c r="B22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>74</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1294,11 +1300,11 @@
       <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1318,11 +1324,11 @@
       <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="2" t="s">
